--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.98</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2103,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.98</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.06</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.31</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2312,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2328,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.98</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4065</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4065</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.98</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -792,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,32 +864,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2159</t>
+          <t>0.5369</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -924,32 +902,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2159</t>
+          <t>0.5369</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -962,32 +940,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0854</t>
+          <t>0.1722</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1000,32 +978,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0854</t>
+          <t>0.1722</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1038,6 +1016,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,328 +1766,6 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8686</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6674</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1814</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0919</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1800,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1852,32 +1830,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1890,32 +1868,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1928,32 +1906,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1966,32 +1944,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2030,7 +2008,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2060,36 +2038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.2389</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2098,36 +2076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.2389</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2136,36 +2114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2174,36 +2152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2217,144 +2195,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.26</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.98</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.98</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>0.2404</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>-0.4766</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -864,36 +881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -978,36 +995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1016,6 +1033,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,214 +1991,6 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2038,36 +2055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2076,36 +2093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2114,36 +2131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2152,36 +2169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2190,6 +2207,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/DVN-戴文能源.xlsx
+++ b/数据整理/stocks/其他/DVN-戴文能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4762</t>
+          <t>0.4362</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +908,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4762</t>
+          <t>0.4362</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +946,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2404</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +984,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-11.74</t>
+          <t>-11.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.4766</t>
+          <t>-0.4362</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -881,36 +1068,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -919,36 +1106,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8520</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -957,36 +1144,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>0.2404</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -995,36 +1182,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2783</t>
+          <t>-0.4766</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1089,36 +1276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1127,36 +1314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5369</t>
+          <t>0.8520</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1165,36 +1352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1203,36 +1390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1722</t>
+          <t>0.2783</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1241,6 +1428,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1991,214 +2386,6 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2263,36 +2450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2301,36 +2488,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2389</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2339,36 +2526,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2377,36 +2564,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2420,166 +2607,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4065</t>
+          <t>0.2389</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4065</t>
+          <t>0.2389</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007844</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>